--- a/ProductBurndown.xlsx
+++ b/ProductBurndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\AEC\AECProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095B7A68-8910-41C0-9D8E-CB4DA8EFFB11}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8A5D17-7551-4B1E-AB60-96D38D16D334}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>Initial</t>
   </si>
@@ -84,6 +84,67 @@
   </si>
   <si>
     <t>Velocity (stpts / hour)</t>
+  </si>
+  <si>
+    <t>Story ID</t>
+  </si>
+  <si>
+    <t>Story</t>
+  </si>
+  <si>
+    <t>Storypoints</t>
+  </si>
+  <si>
+    <t>Wechseln auf neues DevKit</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Verbesserung tracking impl. (Canvas)</t>
+  </si>
+  <si>
+    <t>Implementation von Collision Detection</t>
+  </si>
+  <si>
+    <t>Tracking und Animation in 1 Projekt</t>
+  </si>
+  <si>
+    <t>Starten von Animation durch stehen auf homebutton</t>
+  </si>
+  <si>
+    <t>Auswahl von Text durch User</t>
+  </si>
+  <si>
+    <t>Animation Text auf smartphone</t>
+  </si>
+  <si>
+    <t>Smartphone fade out End of scene 1</t>
+  </si>
+  <si>
+    <t>Text converten mit rotX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animation for encryption
+</t>
+  </si>
+  <si>
+    <t>Selection of rotX with tracking End of scene 2</t>
+  </si>
+  <si>
+    <t>Implement Game scene 3</t>
+  </si>
+  <si>
+    <t>Create Animation of sending a message scene 4</t>
+  </si>
+  <si>
+    <t>Create Animation message tower</t>
+  </si>
+  <si>
+    <t>Leaderboard scene 5</t>
+  </si>
+  <si>
+    <t>Making Storys and Pm sheet</t>
   </si>
 </sst>
 </file>
@@ -95,7 +156,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,8 +180,20 @@
       <name val="Arial"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,8 +206,14 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -157,6 +236,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -164,7 +284,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
@@ -207,6 +327,36 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -548,8 +698,8 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>371160</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>84060</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>522210</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -917,18 +1067,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:AA26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+    <sheetView tabSelected="1" topLeftCell="H6" zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z24" sqref="Z24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="33.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -936,7 +1087,7 @@
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
     </row>
-    <row r="2" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -950,7 +1101,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>39</v>
       </c>
@@ -965,7 +1116,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>5</v>
       </c>
@@ -980,7 +1131,7 @@
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
     </row>
-    <row r="6" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -1014,8 +1165,19 @@
       <c r="K6" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="W6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="X6" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y6" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="16"/>
+    </row>
+    <row r="7" spans="1:27" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>43871</v>
       </c>
@@ -1037,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="7">
-        <f t="shared" ref="H7:H52" si="0">G7+D7</f>
+        <f t="shared" ref="H7:H25" si="0">G7+D7</f>
         <v>10</v>
       </c>
       <c r="I7" s="7">
@@ -1052,8 +1214,21 @@
         <f>IF(OR(ISBLANK(D7),ISBLANK(E7)),'[1]Sheet 1 - Initial'!D7,H7/(I7+E7))</f>
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="W7" s="17">
+        <v>1</v>
+      </c>
+      <c r="X7" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y7" s="18">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <f>A7+14</f>
         <v>43885</v>
@@ -1077,7 +1252,7 @@
         <v>10</v>
       </c>
       <c r="I8" s="7">
-        <f t="shared" ref="I8:I52" si="1">I7+E7</f>
+        <f t="shared" ref="I8:I25" si="1">I7+E7</f>
         <v>30</v>
       </c>
       <c r="J8" s="7">
@@ -1085,13 +1260,26 @@
         <v>19</v>
       </c>
       <c r="K8" s="9">
-        <f t="shared" ref="K8:K52" si="2">IF(OR(ISBLANK(D8),ISBLANK(E8)),K7,H8/(I8+E8))</f>
+        <f t="shared" ref="K8:K25" si="2">IF(OR(ISBLANK(D8),ISBLANK(E8)),K7,H8/(I8+E8))</f>
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="W8" s="17">
+        <v>2</v>
+      </c>
+      <c r="X8" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y8" s="18">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
-        <f t="shared" ref="A9:A52" si="3">A8+14</f>
+        <f t="shared" ref="A9:A25" si="3">A8+14</f>
         <v>43899</v>
       </c>
       <c r="B9" s="6">
@@ -1101,11 +1289,11 @@
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="7">
-        <f t="shared" ref="F9:F52" si="4">J8+C9</f>
+        <f t="shared" ref="F9:F25" si="4">J8+C9</f>
         <v>19</v>
       </c>
       <c r="G9" s="7">
-        <f t="shared" ref="G9:G52" si="5">H8</f>
+        <f t="shared" ref="G9:G25" si="5">H8</f>
         <v>10</v>
       </c>
       <c r="H9" s="7">
@@ -1117,15 +1305,26 @@
         <v>30</v>
       </c>
       <c r="J9" s="7">
-        <f t="shared" ref="J8:J52" si="6">MAX(IF(OR(ISBLANK(D9),ISBLANK(E9)),F9-K8*B9,F9-D9),0)</f>
+        <f t="shared" ref="J9:J25" si="6">MAX(IF(OR(ISBLANK(D9),ISBLANK(E9)),F9-K8*B9,F9-D9),0)</f>
         <v>9</v>
       </c>
       <c r="K9" s="9">
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="W9" s="17">
+        <v>3</v>
+      </c>
+      <c r="X9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y9" s="18">
+        <v>2</v>
+      </c>
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="16"/>
+    </row>
+    <row r="10" spans="1:27" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <f t="shared" si="3"/>
         <v>43913</v>
@@ -1160,8 +1359,21 @@
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="W10" s="17">
+        <v>4</v>
+      </c>
+      <c r="X10" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y10" s="18">
+        <v>2</v>
+      </c>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <f t="shared" si="3"/>
         <v>43927</v>
@@ -1196,8 +1408,19 @@
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="W11" s="17">
+        <v>5</v>
+      </c>
+      <c r="X11" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y11" s="18">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="16"/>
+    </row>
+    <row r="12" spans="1:27" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <f t="shared" si="3"/>
         <v>43941</v>
@@ -1232,8 +1455,19 @@
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="W12" s="17">
+        <v>6</v>
+      </c>
+      <c r="X12" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y12" s="18">
+        <v>2</v>
+      </c>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="16"/>
+    </row>
+    <row r="13" spans="1:27" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <f t="shared" si="3"/>
         <v>43955</v>
@@ -1268,8 +1502,19 @@
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="W13" s="17">
+        <v>7</v>
+      </c>
+      <c r="X13" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y13" s="18">
+        <v>2</v>
+      </c>
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="16"/>
+    </row>
+    <row r="14" spans="1:27" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <f t="shared" si="3"/>
         <v>43969</v>
@@ -1304,8 +1549,21 @@
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="W14" s="17">
+        <v>8</v>
+      </c>
+      <c r="X14" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y14" s="18">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <f t="shared" si="3"/>
         <v>43983</v>
@@ -1340,8 +1598,19 @@
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="W15" s="17">
+        <v>9</v>
+      </c>
+      <c r="X15" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y15" s="18">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="16"/>
+      <c r="AA15" s="16"/>
+    </row>
+    <row r="16" spans="1:27" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <f t="shared" si="3"/>
         <v>43997</v>
@@ -1376,8 +1645,19 @@
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="W16" s="17">
+        <v>10</v>
+      </c>
+      <c r="X16" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y16" s="18">
+        <v>2</v>
+      </c>
+      <c r="Z16" s="16"/>
+      <c r="AA16" s="16"/>
+    </row>
+    <row r="17" spans="1:27" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <f t="shared" si="3"/>
         <v>44011</v>
@@ -1412,8 +1692,19 @@
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="W17" s="17">
+        <v>11</v>
+      </c>
+      <c r="X17" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y17" s="18">
+        <v>3</v>
+      </c>
+      <c r="Z17" s="16"/>
+      <c r="AA17" s="16"/>
+    </row>
+    <row r="18" spans="1:27" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <f t="shared" si="3"/>
         <v>44025</v>
@@ -1448,8 +1739,19 @@
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="W18" s="17">
+        <v>12</v>
+      </c>
+      <c r="X18" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y18" s="18">
+        <v>8</v>
+      </c>
+      <c r="Z18" s="16"/>
+      <c r="AA18" s="16"/>
+    </row>
+    <row r="19" spans="1:27" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <f t="shared" si="3"/>
         <v>44039</v>
@@ -1484,8 +1786,19 @@
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="W19" s="17">
+        <v>13</v>
+      </c>
+      <c r="X19" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y19" s="18">
+        <v>8</v>
+      </c>
+      <c r="Z19" s="16"/>
+      <c r="AA19" s="16"/>
+    </row>
+    <row r="20" spans="1:27" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <f t="shared" si="3"/>
         <v>44053</v>
@@ -1520,8 +1833,19 @@
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="W20" s="17">
+        <v>14</v>
+      </c>
+      <c r="X20" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y20" s="18">
+        <v>8</v>
+      </c>
+      <c r="Z20" s="16"/>
+      <c r="AA20" s="16"/>
+    </row>
+    <row r="21" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <f t="shared" si="3"/>
         <v>44067</v>
@@ -1556,8 +1880,21 @@
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="W21" s="20">
+        <v>15</v>
+      </c>
+      <c r="X21" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y21" s="22">
+        <v>5</v>
+      </c>
+      <c r="Z21" s="16"/>
+      <c r="AA21" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <f t="shared" si="3"/>
         <v>44081</v>
@@ -1592,8 +1929,17 @@
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="W22" s="20">
+        <v>16</v>
+      </c>
+      <c r="X22" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y22" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <f t="shared" si="3"/>
         <v>44095</v>
@@ -1629,7 +1975,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <f t="shared" si="3"/>
         <v>44109</v>
@@ -1665,7 +2011,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <f t="shared" si="3"/>
         <v>44123</v>
@@ -1701,7 +2047,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="11">
         <f ca="1">SUM(B7:B31)</f>
@@ -1723,351 +2069,14 @@
       <c r="J26" s="11"/>
       <c r="K26" s="12"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="9"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="9"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="9"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="9"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="9"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="9"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="9"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="9"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="9"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="9"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="9"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="9"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="9"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="9"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="9"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="9"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="9"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="9"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="9"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="9"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="9"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="9"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="9"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="9"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="5"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="9"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="9"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/ProductBurndown.xlsx
+++ b/ProductBurndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\AEC\AECProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8A5D17-7551-4B1E-AB60-96D38D16D334}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7432382-7CC3-4A1B-A09F-E044E7B198C6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t>Initial</t>
   </si>
@@ -145,6 +145,21 @@
   </si>
   <si>
     <t>Making Storys and Pm sheet</t>
+  </si>
+  <si>
+    <t>Done if animation 1 start when a user stands on the Home button of the Smartphone</t>
+  </si>
+  <si>
+    <t>Done if User can chose one of four text Bubbles and encrypt it</t>
+  </si>
+  <si>
+    <t>Done if a Text can get convertet fia rotX</t>
+  </si>
+  <si>
+    <t>Done if the model and the animation of the enryption work</t>
+  </si>
+  <si>
+    <t>Done when the User can choose a letter for the encryption</t>
   </si>
 </sst>
 </file>
@@ -167,18 +182,18 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -213,7 +228,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -261,19 +276,6 @@
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -284,7 +286,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
@@ -322,41 +324,51 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -698,8 +710,8 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>371160</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>522210</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>132551</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1067,27 +1079,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA26"/>
+  <dimension ref="A1:AB26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H6" zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z24" sqref="Z24"/>
+    <sheetView tabSelected="1" topLeftCell="L6" zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="33.42578125" customWidth="1"/>
+    <col min="28" max="28" width="44.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-    </row>
-    <row r="2" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+    </row>
+    <row r="2" spans="1:28" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1101,7 +1114,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>39</v>
       </c>
@@ -1116,22 +1129,22 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-    </row>
-    <row r="6" spans="1:27" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+    </row>
+    <row r="6" spans="1:28" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -1165,19 +1178,19 @@
       <c r="K6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="W6" s="15" t="s">
+      <c r="W6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="X6" s="16" t="s">
+      <c r="X6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="Y6" s="16" t="s">
+      <c r="Y6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="Z6" s="16"/>
-      <c r="AA6" s="16"/>
-    </row>
-    <row r="7" spans="1:27" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+    </row>
+    <row r="7" spans="1:28" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>43871</v>
       </c>
@@ -1214,21 +1227,21 @@
         <f>IF(OR(ISBLANK(D7),ISBLANK(E7)),'[1]Sheet 1 - Initial'!D7,H7/(I7+E7))</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="W7" s="17">
+      <c r="W7" s="15">
         <v>1</v>
       </c>
-      <c r="X7" s="16" t="s">
+      <c r="X7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="Y7" s="18">
+      <c r="Y7" s="16">
         <v>1</v>
       </c>
-      <c r="Z7" s="16"/>
-      <c r="AA7" s="16" t="s">
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <f>A7+14</f>
         <v>43885</v>
@@ -1263,21 +1276,21 @@
         <f t="shared" ref="K8:K25" si="2">IF(OR(ISBLANK(D8),ISBLANK(E8)),K7,H8/(I8+E8))</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="W8" s="17">
+      <c r="W8" s="15">
         <v>2</v>
       </c>
-      <c r="X8" s="16" t="s">
+      <c r="X8" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="Y8" s="18">
+      <c r="Y8" s="16">
         <v>1</v>
       </c>
-      <c r="Z8" s="16"/>
-      <c r="AA8" s="16" t="s">
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <f t="shared" ref="A9:A25" si="3">A8+14</f>
         <v>43899</v>
@@ -1312,19 +1325,19 @@
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="W9" s="17">
+      <c r="W9" s="15">
         <v>3</v>
       </c>
-      <c r="X9" s="16" t="s">
+      <c r="X9" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="Y9" s="18">
+      <c r="Y9" s="16">
         <v>2</v>
       </c>
-      <c r="Z9" s="16"/>
-      <c r="AA9" s="16"/>
-    </row>
-    <row r="10" spans="1:27" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+    </row>
+    <row r="10" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <f t="shared" si="3"/>
         <v>43913</v>
@@ -1359,21 +1372,21 @@
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="W10" s="17">
+      <c r="W10" s="15">
         <v>4</v>
       </c>
-      <c r="X10" s="16" t="s">
+      <c r="X10" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="Y10" s="18">
+      <c r="Y10" s="16">
         <v>2</v>
       </c>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="16" t="s">
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <f t="shared" si="3"/>
         <v>43927</v>
@@ -1408,19 +1421,22 @@
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="W11" s="17">
+      <c r="W11" s="15">
         <v>5</v>
       </c>
-      <c r="X11" s="16" t="s">
+      <c r="X11" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="Y11" s="18">
+      <c r="Y11" s="16">
         <v>1</v>
       </c>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="16"/>
-    </row>
-    <row r="12" spans="1:27" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <f t="shared" si="3"/>
         <v>43941</v>
@@ -1455,19 +1471,22 @@
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="W12" s="17">
+      <c r="W12" s="15">
         <v>6</v>
       </c>
-      <c r="X12" s="16" t="s">
+      <c r="X12" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="Y12" s="18">
+      <c r="Y12" s="16">
         <v>2</v>
       </c>
-      <c r="Z12" s="16"/>
-      <c r="AA12" s="16"/>
-    </row>
-    <row r="13" spans="1:27" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <f t="shared" si="3"/>
         <v>43955</v>
@@ -1502,19 +1521,19 @@
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="W13" s="17">
+      <c r="W13" s="15">
         <v>7</v>
       </c>
-      <c r="X13" s="16" t="s">
+      <c r="X13" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Y13" s="18">
+      <c r="Y13" s="16">
         <v>2</v>
       </c>
-      <c r="Z13" s="16"/>
-      <c r="AA13" s="16"/>
-    </row>
-    <row r="14" spans="1:27" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="14"/>
+    </row>
+    <row r="14" spans="1:28" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <f t="shared" si="3"/>
         <v>43969</v>
@@ -1549,21 +1568,21 @@
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="W14" s="17">
+      <c r="W14" s="15">
         <v>8</v>
       </c>
-      <c r="X14" s="16" t="s">
+      <c r="X14" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="Y14" s="18">
+      <c r="Y14" s="16">
         <v>1</v>
       </c>
-      <c r="Z14" s="16"/>
-      <c r="AA14" s="19" t="s">
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <f t="shared" si="3"/>
         <v>43983</v>
@@ -1598,19 +1617,22 @@
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="W15" s="17">
+      <c r="W15" s="15">
         <v>9</v>
       </c>
-      <c r="X15" s="16" t="s">
+      <c r="X15" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="Y15" s="18">
-        <v>1</v>
-      </c>
-      <c r="Z15" s="16"/>
-      <c r="AA15" s="16"/>
-    </row>
-    <row r="16" spans="1:27" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y15" s="16">
+        <v>2</v>
+      </c>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <f t="shared" si="3"/>
         <v>43997</v>
@@ -1645,19 +1667,22 @@
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="W16" s="17">
-        <v>10</v>
-      </c>
-      <c r="X16" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y16" s="18">
+      <c r="W16" s="15">
+        <v>10</v>
+      </c>
+      <c r="X16" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y16" s="16">
         <v>2</v>
       </c>
-      <c r="Z16" s="16"/>
-      <c r="AA16" s="16"/>
-    </row>
-    <row r="17" spans="1:27" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <f t="shared" si="3"/>
         <v>44011</v>
@@ -1692,19 +1717,22 @@
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="W17" s="17">
+      <c r="W17" s="15">
         <v>11</v>
       </c>
-      <c r="X17" s="16" t="s">
+      <c r="X17" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="Y17" s="18">
+      <c r="Y17" s="16">
         <v>3</v>
       </c>
-      <c r="Z17" s="16"/>
-      <c r="AA17" s="16"/>
-    </row>
-    <row r="18" spans="1:27" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <f t="shared" si="3"/>
         <v>44025</v>
@@ -1739,19 +1767,19 @@
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="W18" s="17">
+      <c r="W18" s="15">
         <v>12</v>
       </c>
-      <c r="X18" s="16" t="s">
+      <c r="X18" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="Y18" s="18">
+      <c r="Y18" s="16">
         <v>8</v>
       </c>
-      <c r="Z18" s="16"/>
-      <c r="AA18" s="16"/>
-    </row>
-    <row r="19" spans="1:27" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14"/>
+    </row>
+    <row r="19" spans="1:28" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <f t="shared" si="3"/>
         <v>44039</v>
@@ -1786,19 +1814,19 @@
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="W19" s="17">
+      <c r="W19" s="15">
         <v>13</v>
       </c>
-      <c r="X19" s="16" t="s">
+      <c r="X19" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="Y19" s="18">
+      <c r="Y19" s="16">
         <v>8</v>
       </c>
-      <c r="Z19" s="16"/>
-      <c r="AA19" s="16"/>
-    </row>
-    <row r="20" spans="1:27" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
+    </row>
+    <row r="20" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <f t="shared" si="3"/>
         <v>44053</v>
@@ -1833,19 +1861,19 @@
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="W20" s="17">
+      <c r="W20" s="15">
         <v>14</v>
       </c>
-      <c r="X20" s="16" t="s">
+      <c r="X20" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="Y20" s="18">
+      <c r="Y20" s="16">
         <v>8</v>
       </c>
-      <c r="Z20" s="16"/>
-      <c r="AA20" s="16"/>
-    </row>
-    <row r="21" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="14"/>
+    </row>
+    <row r="21" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <f t="shared" si="3"/>
         <v>44067</v>
@@ -1880,21 +1908,21 @@
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="W21" s="20">
+      <c r="W21" s="18">
         <v>15</v>
       </c>
-      <c r="X21" s="21" t="s">
+      <c r="X21" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="Y21" s="22">
+      <c r="Y21" s="20">
         <v>5</v>
       </c>
-      <c r="Z21" s="16"/>
-      <c r="AA21" s="16" t="s">
+      <c r="Z21" s="19"/>
+      <c r="AA21" s="14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <f t="shared" si="3"/>
         <v>44081</v>
@@ -1929,17 +1957,18 @@
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="W22" s="20">
+      <c r="W22" s="21">
         <v>16</v>
       </c>
-      <c r="X22" s="23" t="s">
+      <c r="X22" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="Y22" s="24">
+      <c r="Y22" s="23">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Z22" s="24"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <f t="shared" si="3"/>
         <v>44095</v>
@@ -1975,7 +2004,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <f t="shared" si="3"/>
         <v>44109</v>
@@ -2011,7 +2040,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <f t="shared" si="3"/>
         <v>44123</v>
@@ -2047,7 +2076,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="11">
         <f ca="1">SUM(B7:B31)</f>

--- a/ProductBurndown.xlsx
+++ b/ProductBurndown.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\AEC\AECProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\4AHIF\SYP\DeepSpace-Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095B7A68-8910-41C0-9D8E-CB4DA8EFFB11}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C8C8EF-5608-4B9F-98D3-464A342139F5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -345,25 +345,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>29</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>28.454545454545453</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>21.909090909090907</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>18.636363636363633</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>12.090909090909086</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>5.5454545454545405</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -920,7 +920,7 @@
   <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -952,17 +952,17 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B3" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C3" s="2">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="D3" s="3">
         <f>B3/C3</f>
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1020,7 +1020,7 @@
         <v>43871</v>
       </c>
       <c r="B7" s="6">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6">
@@ -1030,14 +1030,14 @@
         <v>30</v>
       </c>
       <c r="F7" s="7">
-        <f>A3</f>
-        <v>39</v>
+        <f>A3-B3</f>
+        <v>47</v>
       </c>
       <c r="G7" s="7">
         <v>0</v>
       </c>
       <c r="H7" s="7">
-        <f t="shared" ref="H7:H52" si="0">G7+D7</f>
+        <f t="shared" ref="H7:H25" si="0">G7+D7</f>
         <v>10</v>
       </c>
       <c r="I7" s="7">
@@ -1046,7 +1046,7 @@
       </c>
       <c r="J7" s="7">
         <f>MAX(IF(OR(ISBLANK(D7),ISBLANK(E7)),F7-K6*B7,F7-D7),0)</f>
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K7" s="9">
         <f>IF(OR(ISBLANK(D7),ISBLANK(E7)),'[1]Sheet 1 - Initial'!D7,H7/(I7+E7))</f>
@@ -1059,14 +1059,18 @@
         <v>43885</v>
       </c>
       <c r="B8" s="6">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="D8" s="6">
+        <v>2</v>
+      </c>
+      <c r="E8" s="6">
+        <v>36</v>
+      </c>
       <c r="F8" s="8">
         <f>J7+C8</f>
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G8" s="7">
         <f>H7</f>
@@ -1074,55 +1078,55 @@
       </c>
       <c r="H8" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I8" s="7">
-        <f t="shared" ref="I8:I52" si="1">I7+E7</f>
+        <f t="shared" ref="I8:I25" si="1">I7+E7</f>
         <v>30</v>
       </c>
       <c r="J8" s="7">
         <f>MAX(IF(OR(ISBLANK(D8),ISBLANK(E8)),F8-K7*B8,F8-D8),0)</f>
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="K8" s="9">
-        <f t="shared" ref="K8:K52" si="2">IF(OR(ISBLANK(D8),ISBLANK(E8)),K7,H8/(I8+E8))</f>
-        <v>0.33333333333333331</v>
+        <f t="shared" ref="K8:K25" si="2">IF(OR(ISBLANK(D8),ISBLANK(E8)),K7,H8/(I8+E8))</f>
+        <v>0.18181818181818182</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <f t="shared" ref="A9:A52" si="3">A8+14</f>
+        <f t="shared" ref="A9:A25" si="3">A8+14</f>
         <v>43899</v>
       </c>
       <c r="B9" s="6">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="7">
-        <f t="shared" ref="F9:F52" si="4">J8+C9</f>
-        <v>19</v>
+        <f t="shared" ref="F9:F25" si="4">J8+C9</f>
+        <v>35</v>
       </c>
       <c r="G9" s="7">
-        <f t="shared" ref="G9:G52" si="5">H8</f>
-        <v>10</v>
+        <f t="shared" ref="G9:G25" si="5">H8</f>
+        <v>12</v>
       </c>
       <c r="H9" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I9" s="7">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="J9" s="7">
-        <f t="shared" ref="J8:J52" si="6">MAX(IF(OR(ISBLANK(D9),ISBLANK(E9)),F9-K8*B9,F9-D9),0)</f>
-        <v>9</v>
+        <f t="shared" ref="J9:J25" si="6">MAX(IF(OR(ISBLANK(D9),ISBLANK(E9)),F9-K8*B9,F9-D9),0)</f>
+        <v>28.454545454545453</v>
       </c>
       <c r="K9" s="9">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
+        <v>0.18181818181818182</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1131,34 +1135,34 @@
         <v>43913</v>
       </c>
       <c r="B10" s="6">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="7">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>28.454545454545453</v>
       </c>
       <c r="G10" s="7">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H10" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I10" s="7">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="J10" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>21.909090909090907</v>
       </c>
       <c r="K10" s="9">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
+        <v>0.18181818181818182</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1167,34 +1171,34 @@
         <v>43927</v>
       </c>
       <c r="B11" s="6">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>21.909090909090907</v>
       </c>
       <c r="G11" s="7">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H11" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I11" s="7">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="J11" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>18.636363636363633</v>
       </c>
       <c r="K11" s="9">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
+        <v>0.18181818181818182</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1203,34 +1207,34 @@
         <v>43941</v>
       </c>
       <c r="B12" s="6">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>18.636363636363633</v>
       </c>
       <c r="G12" s="7">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H12" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I12" s="7">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="J12" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>12.090909090909086</v>
       </c>
       <c r="K12" s="9">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
+        <v>0.18181818181818182</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1239,34 +1243,34 @@
         <v>43955</v>
       </c>
       <c r="B13" s="6">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>12.090909090909086</v>
       </c>
       <c r="G13" s="7">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H13" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I13" s="7">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="J13" s="7">
         <f>MAX(IF(OR(ISBLANK(D13),ISBLANK(E13)),F13-K12*B13,F13-D13),0)</f>
-        <v>0</v>
+        <v>5.5454545454545405</v>
       </c>
       <c r="K13" s="9">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
+        <v>0.18181818181818182</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1275,26 +1279,26 @@
         <v>43969</v>
       </c>
       <c r="B14" s="6">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="7">
         <f>J13+C14</f>
-        <v>0</v>
+        <v>5.5454545454545405</v>
       </c>
       <c r="G14" s="7">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H14" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I14" s="7">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="J14" s="7">
         <f t="shared" si="6"/>
@@ -1302,7 +1306,7 @@
       </c>
       <c r="K14" s="9">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
+        <v>0.18181818181818182</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1311,7 +1315,7 @@
         <v>43983</v>
       </c>
       <c r="B15" s="6">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -1322,15 +1326,15 @@
       </c>
       <c r="G15" s="7">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H15" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I15" s="7">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="J15" s="7">
         <f t="shared" si="6"/>
@@ -1338,7 +1342,7 @@
       </c>
       <c r="K15" s="9">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
+        <v>0.18181818181818182</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1347,7 +1351,7 @@
         <v>43997</v>
       </c>
       <c r="B16" s="6">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -1358,15 +1362,15 @@
       </c>
       <c r="G16" s="7">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H16" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I16" s="7">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="J16" s="7">
         <f t="shared" si="6"/>
@@ -1374,7 +1378,7 @@
       </c>
       <c r="K16" s="9">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
+        <v>0.18181818181818182</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1383,7 +1387,7 @@
         <v>44011</v>
       </c>
       <c r="B17" s="6">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -1394,15 +1398,15 @@
       </c>
       <c r="G17" s="7">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H17" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I17" s="7">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="J17" s="7">
         <f t="shared" si="6"/>
@@ -1410,7 +1414,7 @@
       </c>
       <c r="K17" s="9">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
+        <v>0.18181818181818182</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1419,7 +1423,7 @@
         <v>44025</v>
       </c>
       <c r="B18" s="6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -1430,15 +1434,15 @@
       </c>
       <c r="G18" s="7">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H18" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I18" s="7">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="J18" s="7">
         <f t="shared" si="6"/>
@@ -1446,7 +1450,7 @@
       </c>
       <c r="K18" s="9">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
+        <v>0.18181818181818182</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1455,7 +1459,7 @@
         <v>44039</v>
       </c>
       <c r="B19" s="6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -1466,15 +1470,15 @@
       </c>
       <c r="G19" s="7">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H19" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I19" s="7">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="J19" s="7">
         <f t="shared" si="6"/>
@@ -1482,7 +1486,7 @@
       </c>
       <c r="K19" s="9">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
+        <v>0.18181818181818182</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1491,7 +1495,7 @@
         <v>44053</v>
       </c>
       <c r="B20" s="6">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -1502,15 +1506,15 @@
       </c>
       <c r="G20" s="7">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H20" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I20" s="7">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="J20" s="7">
         <f t="shared" si="6"/>
@@ -1518,7 +1522,7 @@
       </c>
       <c r="K20" s="9">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
+        <v>0.18181818181818182</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1527,7 +1531,7 @@
         <v>44067</v>
       </c>
       <c r="B21" s="6">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -1538,15 +1542,15 @@
       </c>
       <c r="G21" s="7">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H21" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I21" s="7">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="J21" s="7">
         <f t="shared" si="6"/>
@@ -1554,7 +1558,7 @@
       </c>
       <c r="K21" s="9">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
+        <v>0.18181818181818182</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1563,7 +1567,7 @@
         <v>44081</v>
       </c>
       <c r="B22" s="6">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -1574,15 +1578,15 @@
       </c>
       <c r="G22" s="7">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H22" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I22" s="7">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="J22" s="7">
         <f t="shared" si="6"/>
@@ -1590,7 +1594,7 @@
       </c>
       <c r="K22" s="9">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
+        <v>0.18181818181818182</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1599,7 +1603,7 @@
         <v>44095</v>
       </c>
       <c r="B23" s="6">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -1610,15 +1614,15 @@
       </c>
       <c r="G23" s="7">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H23" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I23" s="7">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="J23" s="7">
         <f t="shared" si="6"/>
@@ -1626,7 +1630,7 @@
       </c>
       <c r="K23" s="9">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
+        <v>0.18181818181818182</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1635,7 +1639,7 @@
         <v>44109</v>
       </c>
       <c r="B24" s="6">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -1646,15 +1650,15 @@
       </c>
       <c r="G24" s="7">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H24" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I24" s="7">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="J24" s="7">
         <f t="shared" si="6"/>
@@ -1662,7 +1666,7 @@
       </c>
       <c r="K24" s="9">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
+        <v>0.18181818181818182</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1671,7 +1675,7 @@
         <v>44123</v>
       </c>
       <c r="B25" s="6">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -1682,15 +1686,15 @@
       </c>
       <c r="G25" s="7">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H25" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I25" s="7">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="J25" s="7">
         <f t="shared" si="6"/>
@@ -1698,7 +1702,7 @@
       </c>
       <c r="K25" s="9">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
+        <v>0.18181818181818182</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">

--- a/ProductBurndown.xlsx
+++ b/ProductBurndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\AEC\AECProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7432382-7CC3-4A1B-A09F-E044E7B198C6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E1F3AC-6878-4F39-94B6-14D40F283111}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
   <si>
     <t>Initial</t>
   </si>
@@ -286,7 +286,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
@@ -363,6 +363,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -449,7 +452,7 @@
                 <c:pt idx="2">
                   <c:v>43899</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="m/d/yyyy">
                   <c:v>43913</c:v>
                 </c:pt>
                 <c:pt idx="4">
@@ -467,10 +470,10 @@
                 <c:pt idx="8">
                   <c:v>43983</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="9" formatCode="m/d/yyyy">
                   <c:v>43997</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="10" formatCode="m/d/yyyy">
                   <c:v>44011</c:v>
                 </c:pt>
                 <c:pt idx="11">
@@ -479,16 +482,16 @@
                 <c:pt idx="12">
                   <c:v>44039</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="13" formatCode="m/d/yyyy">
                   <c:v>44053</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="14" formatCode="m/d/yyyy">
                   <c:v>44067</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>44081</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="16" formatCode="m/d/yyyy">
                   <c:v>44095</c:v>
                 </c:pt>
                 <c:pt idx="17">
@@ -513,10 +516,10 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>6.1428571428571432</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1081,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L6" zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V17" sqref="V17"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1093,12 +1096,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
     </row>
     <row r="2" spans="1:28" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1130,19 +1133,19 @@
       </c>
     </row>
     <row r="5" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
     </row>
     <row r="6" spans="1:28" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
@@ -1299,8 +1302,12 @@
         <v>30</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="D9" s="6">
+        <v>6</v>
+      </c>
+      <c r="E9" s="6">
+        <v>40</v>
+      </c>
       <c r="F9" s="7">
         <f t="shared" ref="F9:F25" si="4">J8+C9</f>
         <v>19</v>
@@ -1311,7 +1318,7 @@
       </c>
       <c r="H9" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I9" s="7">
         <f t="shared" si="1"/>
@@ -1319,11 +1326,11 @@
       </c>
       <c r="J9" s="7">
         <f t="shared" ref="J9:J25" si="6">MAX(IF(OR(ISBLANK(D9),ISBLANK(E9)),F9-K8*B9,F9-D9),0)</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K9" s="9">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
+        <v>0.22857142857142856</v>
       </c>
       <c r="W9" s="15">
         <v>3</v>
@@ -1338,8 +1345,8 @@
       <c r="AA9" s="14"/>
     </row>
     <row r="10" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
-        <f t="shared" si="3"/>
+      <c r="A10" s="27">
+        <f>A9+14</f>
         <v>43913</v>
       </c>
       <c r="B10" s="6">
@@ -1350,27 +1357,27 @@
       <c r="E10" s="6"/>
       <c r="F10" s="7">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G10" s="7">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H10" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I10" s="7">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="J10" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>6.1428571428571432</v>
       </c>
       <c r="K10" s="9">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
+        <v>0.22857142857142856</v>
       </c>
       <c r="W10" s="15">
         <v>4</v>
@@ -1399,19 +1406,19 @@
       <c r="E11" s="6"/>
       <c r="F11" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6.1428571428571432</v>
       </c>
       <c r="G11" s="7">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H11" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I11" s="7">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="J11" s="7">
         <f t="shared" si="6"/>
@@ -1419,7 +1426,7 @@
       </c>
       <c r="K11" s="9">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
+        <v>0.22857142857142856</v>
       </c>
       <c r="W11" s="15">
         <v>5</v>
@@ -1453,15 +1460,15 @@
       </c>
       <c r="G12" s="7">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H12" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I12" s="7">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="J12" s="7">
         <f t="shared" si="6"/>
@@ -1469,7 +1476,7 @@
       </c>
       <c r="K12" s="9">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
+        <v>0.22857142857142856</v>
       </c>
       <c r="W12" s="15">
         <v>6</v>
@@ -1503,15 +1510,15 @@
       </c>
       <c r="G13" s="7">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H13" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I13" s="7">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="J13" s="7">
         <f>MAX(IF(OR(ISBLANK(D13),ISBLANK(E13)),F13-K12*B13,F13-D13),0)</f>
@@ -1519,7 +1526,7 @@
       </c>
       <c r="K13" s="9">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
+        <v>0.22857142857142856</v>
       </c>
       <c r="W13" s="15">
         <v>7</v>
@@ -1550,15 +1557,15 @@
       </c>
       <c r="G14" s="7">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H14" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I14" s="7">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="J14" s="7">
         <f t="shared" si="6"/>
@@ -1566,7 +1573,7 @@
       </c>
       <c r="K14" s="9">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
+        <v>0.22857142857142856</v>
       </c>
       <c r="W14" s="15">
         <v>8</v>
@@ -1599,15 +1606,15 @@
       </c>
       <c r="G15" s="7">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H15" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I15" s="7">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="J15" s="7">
         <f t="shared" si="6"/>
@@ -1615,7 +1622,7 @@
       </c>
       <c r="K15" s="9">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
+        <v>0.22857142857142856</v>
       </c>
       <c r="W15" s="15">
         <v>9</v>
@@ -1627,14 +1634,16 @@
         <v>2</v>
       </c>
       <c r="Z15" s="14"/>
-      <c r="AA15" s="14"/>
+      <c r="AA15" s="14" t="s">
+        <v>21</v>
+      </c>
       <c r="AB15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
-        <f t="shared" si="3"/>
+      <c r="A16" s="27">
+        <f>A15+14</f>
         <v>43997</v>
       </c>
       <c r="B16" s="6">
@@ -1649,15 +1658,15 @@
       </c>
       <c r="G16" s="7">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H16" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I16" s="7">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="J16" s="7">
         <f t="shared" si="6"/>
@@ -1665,7 +1674,7 @@
       </c>
       <c r="K16" s="9">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
+        <v>0.22857142857142856</v>
       </c>
       <c r="W16" s="15">
         <v>10</v>
@@ -1683,7 +1692,7 @@
       </c>
     </row>
     <row r="17" spans="1:28" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
+      <c r="A17" s="27">
         <f t="shared" si="3"/>
         <v>44011</v>
       </c>
@@ -1699,15 +1708,15 @@
       </c>
       <c r="G17" s="7">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H17" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I17" s="7">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="J17" s="7">
         <f t="shared" si="6"/>
@@ -1715,7 +1724,7 @@
       </c>
       <c r="K17" s="9">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
+        <v>0.22857142857142856</v>
       </c>
       <c r="W17" s="15">
         <v>11</v>
@@ -1749,15 +1758,15 @@
       </c>
       <c r="G18" s="7">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H18" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I18" s="7">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="J18" s="7">
         <f t="shared" si="6"/>
@@ -1765,7 +1774,7 @@
       </c>
       <c r="K18" s="9">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
+        <v>0.22857142857142856</v>
       </c>
       <c r="W18" s="15">
         <v>12</v>
@@ -1796,15 +1805,15 @@
       </c>
       <c r="G19" s="7">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H19" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I19" s="7">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="J19" s="7">
         <f t="shared" si="6"/>
@@ -1812,7 +1821,7 @@
       </c>
       <c r="K19" s="9">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
+        <v>0.22857142857142856</v>
       </c>
       <c r="W19" s="15">
         <v>13</v>
@@ -1827,7 +1836,7 @@
       <c r="AA19" s="14"/>
     </row>
     <row r="20" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
+      <c r="A20" s="27">
         <f t="shared" si="3"/>
         <v>44053</v>
       </c>
@@ -1843,15 +1852,15 @@
       </c>
       <c r="G20" s="7">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H20" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I20" s="7">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="J20" s="7">
         <f t="shared" si="6"/>
@@ -1859,7 +1868,7 @@
       </c>
       <c r="K20" s="9">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
+        <v>0.22857142857142856</v>
       </c>
       <c r="W20" s="15">
         <v>14</v>
@@ -1874,7 +1883,7 @@
       <c r="AA20" s="14"/>
     </row>
     <row r="21" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
+      <c r="A21" s="27">
         <f t="shared" si="3"/>
         <v>44067</v>
       </c>
@@ -1890,15 +1899,15 @@
       </c>
       <c r="G21" s="7">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H21" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I21" s="7">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="J21" s="7">
         <f t="shared" si="6"/>
@@ -1906,7 +1915,7 @@
       </c>
       <c r="K21" s="9">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
+        <v>0.22857142857142856</v>
       </c>
       <c r="W21" s="18">
         <v>15</v>
@@ -1939,15 +1948,15 @@
       </c>
       <c r="G22" s="7">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H22" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I22" s="7">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="J22" s="7">
         <f t="shared" si="6"/>
@@ -1955,7 +1964,7 @@
       </c>
       <c r="K22" s="9">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
+        <v>0.22857142857142856</v>
       </c>
       <c r="W22" s="21">
         <v>16</v>
@@ -1969,7 +1978,7 @@
       <c r="Z22" s="24"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+      <c r="A23" s="27">
         <f t="shared" si="3"/>
         <v>44095</v>
       </c>
@@ -1985,15 +1994,15 @@
       </c>
       <c r="G23" s="7">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H23" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I23" s="7">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="J23" s="7">
         <f t="shared" si="6"/>
@@ -2001,7 +2010,7 @@
       </c>
       <c r="K23" s="9">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
+        <v>0.22857142857142856</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.25">
@@ -2021,15 +2030,15 @@
       </c>
       <c r="G24" s="7">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H24" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I24" s="7">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="J24" s="7">
         <f t="shared" si="6"/>
@@ -2037,7 +2046,7 @@
       </c>
       <c r="K24" s="9">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
+        <v>0.22857142857142856</v>
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.25">
@@ -2057,15 +2066,15 @@
       </c>
       <c r="G25" s="7">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H25" s="7">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I25" s="7">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="J25" s="7">
         <f t="shared" si="6"/>
@@ -2073,7 +2082,7 @@
       </c>
       <c r="K25" s="9">
         <f t="shared" si="2"/>
-        <v>0.33333333333333331</v>
+        <v>0.22857142857142856</v>
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.25">

--- a/ProductBurndown.xlsx
+++ b/ProductBurndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\AEC\AECProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E1F3AC-6878-4F39-94B6-14D40F283111}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60A03E3-350A-420D-A56D-513F88443320}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/ProductBurndown.xlsx
+++ b/ProductBurndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\AEC\AECProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60A03E3-350A-420D-A56D-513F88443320}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A96DF5B-3D62-4C6C-9A13-3A5DCFA90CA5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Initial</t>
   </si>
@@ -85,82 +85,6 @@
   <si>
     <t>Velocity (stpts / hour)</t>
   </si>
-  <si>
-    <t>Story ID</t>
-  </si>
-  <si>
-    <t>Story</t>
-  </si>
-  <si>
-    <t>Storypoints</t>
-  </si>
-  <si>
-    <t>Wechseln auf neues DevKit</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>Verbesserung tracking impl. (Canvas)</t>
-  </si>
-  <si>
-    <t>Implementation von Collision Detection</t>
-  </si>
-  <si>
-    <t>Tracking und Animation in 1 Projekt</t>
-  </si>
-  <si>
-    <t>Starten von Animation durch stehen auf homebutton</t>
-  </si>
-  <si>
-    <t>Auswahl von Text durch User</t>
-  </si>
-  <si>
-    <t>Animation Text auf smartphone</t>
-  </si>
-  <si>
-    <t>Smartphone fade out End of scene 1</t>
-  </si>
-  <si>
-    <t>Text converten mit rotX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Animation for encryption
-</t>
-  </si>
-  <si>
-    <t>Selection of rotX with tracking End of scene 2</t>
-  </si>
-  <si>
-    <t>Implement Game scene 3</t>
-  </si>
-  <si>
-    <t>Create Animation of sending a message scene 4</t>
-  </si>
-  <si>
-    <t>Create Animation message tower</t>
-  </si>
-  <si>
-    <t>Leaderboard scene 5</t>
-  </si>
-  <si>
-    <t>Making Storys and Pm sheet</t>
-  </si>
-  <si>
-    <t>Done if animation 1 start when a user stands on the Home button of the Smartphone</t>
-  </si>
-  <si>
-    <t>Done if User can chose one of four text Bubbles and encrypt it</t>
-  </si>
-  <si>
-    <t>Done if a Text can get convertet fia rotX</t>
-  </si>
-  <si>
-    <t>Done if the model and the animation of the enryption work</t>
-  </si>
-  <si>
-    <t>Done when the User can choose a letter for the encryption</t>
-  </si>
 </sst>
 </file>
 
@@ -171,7 +95,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,33 +106,21 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,14 +133,8 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00FFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -251,34 +157,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -286,7 +164,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
@@ -322,49 +200,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -439,96 +274,96 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$7:$A$25</c:f>
+              <c:f>Tabelle1!$A$7:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>mmm\ d", "yyyy</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
+                  <c:v>43857</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>43871</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>43885</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>43899</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="m/d/yyyy">
+                <c:pt idx="4">
                   <c:v>43913</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>43927</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>43941</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>43955</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>43969</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>43983</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="m/d/yyyy">
+                <c:pt idx="10">
                   <c:v>43997</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="m/d/yyyy">
+                <c:pt idx="11">
                   <c:v>44011</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>44025</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>44039</c:v>
                 </c:pt>
-                <c:pt idx="13" formatCode="m/d/yyyy">
+                <c:pt idx="14">
                   <c:v>44053</c:v>
                 </c:pt>
-                <c:pt idx="14" formatCode="m/d/yyyy">
+                <c:pt idx="15">
                   <c:v>44067</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>44081</c:v>
                 </c:pt>
-                <c:pt idx="16" formatCode="m/d/yyyy">
+                <c:pt idx="17">
                   <c:v>44095</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>44109</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>44123</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$J$7:$J$25</c:f>
+              <c:f>Tabelle1!$J$7:$J$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
+                <c:ptCount val="46"/>
+                <c:pt idx="0" formatCode="0.0">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.1428571428571432</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>14.142857142857142</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>7.2857142857142856</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.42857142857142883</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -571,7 +406,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1B87-4D66-B578-A6098CB7A188}"/>
+              <c16:uniqueId val="{00000000-BFAC-4661-BA3E-5976BEC8BA1C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -713,8 +548,8 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>371160</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>132551</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>84060</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -753,8 +588,14 @@
       <sheetName val="Sheet 1 - Drawings"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="J2" t="str">
+            <v>Open Story Points at End</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
@@ -1082,28 +923,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB26"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="33.42578125" customWidth="1"/>
-    <col min="28" max="28" width="44.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-    </row>
-    <row r="2" spans="1:28" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+    </row>
+    <row r="2" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1117,7 +956,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>39</v>
       </c>
@@ -1132,22 +971,22 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-    </row>
-    <row r="6" spans="1:28" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+    </row>
+    <row r="6" spans="1:11" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
@@ -1181,32 +1020,17 @@
       <c r="K6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="W6" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="X6" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y6" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z6" s="14"/>
-      <c r="AA6" s="14"/>
-    </row>
-    <row r="7" spans="1:28" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <v>43871</v>
+        <v>43857</v>
       </c>
       <c r="B7" s="6">
         <v>30</v>
       </c>
       <c r="C7" s="6"/>
-      <c r="D7" s="6">
-        <v>10</v>
-      </c>
-      <c r="E7" s="6">
-        <v>30</v>
-      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
       <c r="F7" s="7">
         <f>A3</f>
         <v>39</v>
@@ -1216,200 +1040,156 @@
       </c>
       <c r="H7" s="7">
         <f t="shared" ref="H7:H25" si="0">G7+D7</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
         <f>'[1]Sheet 1 - Initial'!C7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="7">
-        <f>MAX(IF(OR(ISBLANK(D7),ISBLANK(E7)),F7-K6*B7,F7-D7),0)</f>
-        <v>29</v>
+      <c r="J7" s="8">
+        <f>A3</f>
+        <v>39</v>
       </c>
       <c r="K7" s="9">
         <f>IF(OR(ISBLANK(D7),ISBLANK(E7)),'[1]Sheet 1 - Initial'!D7,H7/(I7+E7))</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="W7" s="15">
-        <v>1</v>
-      </c>
-      <c r="X7" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y7" s="16">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="14"/>
-      <c r="AA7" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <f>A7+14</f>
-        <v>43885</v>
+        <v>43871</v>
       </c>
       <c r="B8" s="6">
         <v>30</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="D8" s="6">
+        <v>10</v>
+      </c>
+      <c r="E8" s="6">
+        <v>30</v>
+      </c>
       <c r="F8" s="8">
         <f>J7+C8</f>
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G8" s="7">
         <f>H7</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H8" s="7">
-        <f t="shared" si="0"/>
+        <f>G8+D8</f>
         <v>10</v>
       </c>
       <c r="I8" s="7">
         <f t="shared" ref="I8:I25" si="1">I7+E7</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7">
         <f>MAX(IF(OR(ISBLANK(D8),ISBLANK(E8)),F8-K7*B8,F8-D8),0)</f>
+        <v>29</v>
+      </c>
+      <c r="K8" s="9">
+        <f>IF(OR(ISBLANK(D8),ISBLANK(E8)),K7,H8/(I8+E8))</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <f t="shared" ref="A9:A25" si="2">A8+14</f>
+        <v>43885</v>
+      </c>
+      <c r="B9" s="6">
+        <v>30</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7">
+        <f t="shared" ref="F9:F25" si="3">J8+C9</f>
+        <v>29</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" ref="G9:G52" si="4">H8</f>
+        <v>10</v>
+      </c>
+      <c r="H9" s="7">
+        <f>G9+D9</f>
+        <v>10</v>
+      </c>
+      <c r="I9" s="7">
+        <f>I8+E8</f>
+        <v>30</v>
+      </c>
+      <c r="J9" s="7">
+        <f>MAX(IF(OR(ISBLANK(D9),ISBLANK(E9)),F9-K8*B9,F9-D9),0)</f>
         <v>19</v>
       </c>
-      <c r="K8" s="9">
-        <f t="shared" ref="K8:K25" si="2">IF(OR(ISBLANK(D8),ISBLANK(E8)),K7,H8/(I8+E8))</f>
+      <c r="K9" s="9">
+        <f>IF(OR(ISBLANK(D9),ISBLANK(E9)),K8,H9/(I9+E9))</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="W8" s="15">
-        <v>2</v>
-      </c>
-      <c r="X8" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y8" s="16">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="14"/>
-      <c r="AA8" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
-        <f t="shared" ref="A9:A25" si="3">A8+14</f>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <f t="shared" si="2"/>
         <v>43899</v>
       </c>
-      <c r="B9" s="6">
-        <v>30</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6">
+      <c r="B10" s="6">
+        <v>30</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6">
         <v>6</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E10" s="6">
         <v>40</v>
       </c>
-      <c r="F9" s="7">
-        <f t="shared" ref="F9:F25" si="4">J8+C9</f>
+      <c r="F10" s="7">
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="G9" s="7">
-        <f t="shared" ref="G9:G25" si="5">H8</f>
+      <c r="G10" s="7">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="H9" s="7">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="I9" s="7">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="J9" s="7">
-        <f t="shared" ref="J9:J25" si="6">MAX(IF(OR(ISBLANK(D9),ISBLANK(E9)),F9-K8*B9,F9-D9),0)</f>
+      <c r="H10" s="7">
+        <f>G10+D10</f>
+        <v>16</v>
+      </c>
+      <c r="I10" s="7">
+        <f>I9+E9</f>
+        <v>30</v>
+      </c>
+      <c r="J10" s="7">
+        <f>MAX(IF(OR(ISBLANK(D10),ISBLANK(E10)),F10-K9*B10,F10-D10),0)</f>
         <v>13</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K10" s="9">
+        <f>IF(OR(ISBLANK(D10),ISBLANK(E10)),K9,H10/(I10+E10))</f>
+        <v>0.22857142857142856</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <f t="shared" si="2"/>
-        <v>0.22857142857142856</v>
-      </c>
-      <c r="W9" s="15">
-        <v>3</v>
-      </c>
-      <c r="X9" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y9" s="16">
-        <v>2</v>
-      </c>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="14"/>
-    </row>
-    <row r="10" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="27">
-        <f>A9+14</f>
         <v>43913</v>
       </c>
-      <c r="B10" s="6">
-        <v>30</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="7">
-        <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="G10" s="7">
-        <f t="shared" si="5"/>
-        <v>16</v>
-      </c>
-      <c r="H10" s="7">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="I10" s="7">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="J10" s="7">
-        <f t="shared" si="6"/>
-        <v>6.1428571428571432</v>
-      </c>
-      <c r="K10" s="9">
-        <f t="shared" si="2"/>
-        <v>0.22857142857142856</v>
-      </c>
-      <c r="W10" s="15">
-        <v>4</v>
-      </c>
-      <c r="X10" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y10" s="16">
-        <v>2</v>
-      </c>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
-        <f t="shared" si="3"/>
-        <v>43927</v>
-      </c>
       <c r="B11" s="6">
         <v>30</v>
       </c>
-      <c r="C11" s="6"/>
+      <c r="C11" s="6">
+        <v>8</v>
+      </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="7">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="G11" s="7">
         <f t="shared" si="4"/>
-        <v>6.1428571428571432</v>
-      </c>
-      <c r="G11" s="7">
-        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="H11" s="7">
@@ -1417,36 +1197,22 @@
         <v>16</v>
       </c>
       <c r="I11" s="7">
-        <f t="shared" si="1"/>
+        <f>I10+E10</f>
         <v>70</v>
       </c>
       <c r="J11" s="7">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" ref="J11:J25" si="5">MAX(IF(OR(ISBLANK(D11),ISBLANK(E11)),F11-K10*B11,F11-D11),0)</f>
+        <v>14.142857142857142</v>
       </c>
       <c r="K11" s="9">
+        <f t="shared" ref="K11:K25" si="6">IF(OR(ISBLANK(D11),ISBLANK(E11)),K10,H11/(I11+E11))</f>
+        <v>0.22857142857142856</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <f t="shared" si="2"/>
-        <v>0.22857142857142856</v>
-      </c>
-      <c r="W11" s="15">
-        <v>5</v>
-      </c>
-      <c r="X11" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y11" s="16">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="14"/>
-      <c r="AA11" s="14"/>
-      <c r="AB11" s="25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
-        <f t="shared" si="3"/>
-        <v>43941</v>
+        <v>43927</v>
       </c>
       <c r="B12" s="6">
         <v>30</v>
@@ -1455,11 +1221,11 @@
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="7">
+        <f t="shared" si="3"/>
+        <v>14.142857142857142</v>
+      </c>
+      <c r="G12" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="7">
-        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="H12" s="7">
@@ -1471,32 +1237,18 @@
         <v>70</v>
       </c>
       <c r="J12" s="7">
+        <f t="shared" si="5"/>
+        <v>7.2857142857142856</v>
+      </c>
+      <c r="K12" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="9">
+        <v>0.22857142857142856</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
         <f t="shared" si="2"/>
-        <v>0.22857142857142856</v>
-      </c>
-      <c r="W12" s="15">
-        <v>6</v>
-      </c>
-      <c r="X12" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y12" s="16">
-        <v>2</v>
-      </c>
-      <c r="Z12" s="14"/>
-      <c r="AA12" s="14"/>
-      <c r="AB12" s="26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
-        <f t="shared" si="3"/>
-        <v>43955</v>
+        <v>43941</v>
       </c>
       <c r="B13" s="6">
         <v>30</v>
@@ -1505,11 +1257,11 @@
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="7">
+        <f t="shared" si="3"/>
+        <v>7.2857142857142856</v>
+      </c>
+      <c r="G13" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="7">
-        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="H13" s="7">
@@ -1521,29 +1273,18 @@
         <v>70</v>
       </c>
       <c r="J13" s="7">
-        <f>MAX(IF(OR(ISBLANK(D13),ISBLANK(E13)),F13-K12*B13,F13-D13),0)</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>0.42857142857142883</v>
       </c>
       <c r="K13" s="9">
+        <f t="shared" si="6"/>
+        <v>0.22857142857142856</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
         <f t="shared" si="2"/>
-        <v>0.22857142857142856</v>
-      </c>
-      <c r="W13" s="15">
-        <v>7</v>
-      </c>
-      <c r="X13" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="Y13" s="16">
-        <v>2</v>
-      </c>
-      <c r="Z13" s="14"/>
-      <c r="AA13" s="14"/>
-    </row>
-    <row r="14" spans="1:28" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
-        <f t="shared" si="3"/>
-        <v>43969</v>
+        <v>43955</v>
       </c>
       <c r="B14" s="6">
         <v>30</v>
@@ -1552,11 +1293,11 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="7">
-        <f>J13+C14</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.42857142857142883</v>
       </c>
       <c r="G14" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="H14" s="7">
@@ -1568,31 +1309,18 @@
         <v>70</v>
       </c>
       <c r="J14" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="9">
+        <v>0.22857142857142856</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
         <f t="shared" si="2"/>
-        <v>0.22857142857142856</v>
-      </c>
-      <c r="W14" s="15">
-        <v>8</v>
-      </c>
-      <c r="X14" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y14" s="16">
-        <v>1</v>
-      </c>
-      <c r="Z14" s="14"/>
-      <c r="AA14" s="17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
-        <f t="shared" si="3"/>
-        <v>43983</v>
+        <v>43969</v>
       </c>
       <c r="B15" s="6">
         <v>30</v>
@@ -1601,11 +1329,11 @@
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="7">
-        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="H15" s="7">
@@ -1617,34 +1345,18 @@
         <v>70</v>
       </c>
       <c r="J15" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="9">
+        <v>0.22857142857142856</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
         <f t="shared" si="2"/>
-        <v>0.22857142857142856</v>
-      </c>
-      <c r="W15" s="15">
-        <v>9</v>
-      </c>
-      <c r="X15" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y15" s="16">
-        <v>2</v>
-      </c>
-      <c r="Z15" s="14"/>
-      <c r="AA15" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="27">
-        <f>A15+14</f>
-        <v>43997</v>
+        <v>43983</v>
       </c>
       <c r="B16" s="6">
         <v>30</v>
@@ -1653,11 +1365,11 @@
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="7">
-        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="H16" s="7">
@@ -1669,32 +1381,18 @@
         <v>70</v>
       </c>
       <c r="J16" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="9">
+        <v>0.22857142857142856</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
         <f t="shared" si="2"/>
-        <v>0.22857142857142856</v>
-      </c>
-      <c r="W16" s="15">
-        <v>10</v>
-      </c>
-      <c r="X16" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y16" s="16">
-        <v>2</v>
-      </c>
-      <c r="Z16" s="14"/>
-      <c r="AA16" s="14"/>
-      <c r="AB16" s="26" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="27">
-        <f t="shared" si="3"/>
-        <v>44011</v>
+        <v>43997</v>
       </c>
       <c r="B17" s="6">
         <v>30</v>
@@ -1703,11 +1401,11 @@
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="7">
-        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="H17" s="7">
@@ -1719,32 +1417,18 @@
         <v>70</v>
       </c>
       <c r="J17" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K17" s="9">
+        <v>0.22857142857142856</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
         <f t="shared" si="2"/>
-        <v>0.22857142857142856</v>
-      </c>
-      <c r="W17" s="15">
-        <v>11</v>
-      </c>
-      <c r="X17" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y17" s="16">
-        <v>3</v>
-      </c>
-      <c r="Z17" s="14"/>
-      <c r="AA17" s="14"/>
-      <c r="AB17" s="26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
-        <f t="shared" si="3"/>
-        <v>44025</v>
+        <v>44011</v>
       </c>
       <c r="B18" s="6">
         <v>30</v>
@@ -1753,11 +1437,11 @@
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="7">
-        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="H18" s="7">
@@ -1769,29 +1453,18 @@
         <v>70</v>
       </c>
       <c r="J18" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="9">
+        <v>0.22857142857142856</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
         <f t="shared" si="2"/>
-        <v>0.22857142857142856</v>
-      </c>
-      <c r="W18" s="15">
-        <v>12</v>
-      </c>
-      <c r="X18" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y18" s="16">
-        <v>8</v>
-      </c>
-      <c r="Z18" s="14"/>
-      <c r="AA18" s="14"/>
-    </row>
-    <row r="19" spans="1:28" ht="65.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
-        <f t="shared" si="3"/>
-        <v>44039</v>
+        <v>44025</v>
       </c>
       <c r="B19" s="6">
         <v>30</v>
@@ -1800,11 +1473,11 @@
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="7">
-        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="H19" s="7">
@@ -1816,29 +1489,18 @@
         <v>70</v>
       </c>
       <c r="J19" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="9">
+        <v>0.22857142857142856</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
         <f t="shared" si="2"/>
-        <v>0.22857142857142856</v>
-      </c>
-      <c r="W19" s="15">
-        <v>13</v>
-      </c>
-      <c r="X19" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y19" s="16">
-        <v>8</v>
-      </c>
-      <c r="Z19" s="14"/>
-      <c r="AA19" s="14"/>
-    </row>
-    <row r="20" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="27">
-        <f t="shared" si="3"/>
-        <v>44053</v>
+        <v>44039</v>
       </c>
       <c r="B20" s="6">
         <v>30</v>
@@ -1847,11 +1509,11 @@
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="7">
-        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="H20" s="7">
@@ -1863,29 +1525,18 @@
         <v>70</v>
       </c>
       <c r="J20" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="9">
+        <v>0.22857142857142856</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
         <f t="shared" si="2"/>
-        <v>0.22857142857142856</v>
-      </c>
-      <c r="W20" s="15">
-        <v>14</v>
-      </c>
-      <c r="X20" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y20" s="16">
-        <v>8</v>
-      </c>
-      <c r="Z20" s="14"/>
-      <c r="AA20" s="14"/>
-    </row>
-    <row r="21" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="27">
-        <f t="shared" si="3"/>
-        <v>44067</v>
+        <v>44053</v>
       </c>
       <c r="B21" s="6">
         <v>30</v>
@@ -1894,11 +1545,11 @@
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="7">
-        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="H21" s="7">
@@ -1910,31 +1561,18 @@
         <v>70</v>
       </c>
       <c r="J21" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K21" s="9">
+        <v>0.22857142857142856</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
         <f t="shared" si="2"/>
-        <v>0.22857142857142856</v>
-      </c>
-      <c r="W21" s="18">
-        <v>15</v>
-      </c>
-      <c r="X21" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y21" s="20">
-        <v>5</v>
-      </c>
-      <c r="Z21" s="19"/>
-      <c r="AA21" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <f t="shared" si="3"/>
-        <v>44081</v>
+        <v>44067</v>
       </c>
       <c r="B22" s="6">
         <v>30</v>
@@ -1943,11 +1581,11 @@
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
       <c r="F22" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="7">
-        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="H22" s="7">
@@ -1959,28 +1597,18 @@
         <v>70</v>
       </c>
       <c r="J22" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="9">
+        <v>0.22857142857142856</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
         <f t="shared" si="2"/>
-        <v>0.22857142857142856</v>
-      </c>
-      <c r="W22" s="21">
-        <v>16</v>
-      </c>
-      <c r="X22" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y22" s="23">
-        <v>2</v>
-      </c>
-      <c r="Z22" s="24"/>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A23" s="27">
-        <f t="shared" si="3"/>
-        <v>44095</v>
+        <v>44081</v>
       </c>
       <c r="B23" s="6">
         <v>30</v>
@@ -1989,11 +1617,11 @@
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="7">
-        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="H23" s="7">
@@ -2005,18 +1633,18 @@
         <v>70</v>
       </c>
       <c r="J23" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="9">
+        <v>0.22857142857142856</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
         <f t="shared" si="2"/>
-        <v>0.22857142857142856</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
-        <f t="shared" si="3"/>
-        <v>44109</v>
+        <v>44095</v>
       </c>
       <c r="B24" s="6">
         <v>30</v>
@@ -2025,11 +1653,11 @@
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="7">
-        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="H24" s="7">
@@ -2041,18 +1669,18 @@
         <v>70</v>
       </c>
       <c r="J24" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="9">
+        <v>0.22857142857142856</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
         <f t="shared" si="2"/>
-        <v>0.22857142857142856</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
-        <f t="shared" si="3"/>
-        <v>44123</v>
+        <v>44109</v>
       </c>
       <c r="B25" s="6">
         <v>30</v>
@@ -2061,11 +1689,11 @@
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="7">
-        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="H25" s="7">
@@ -2077,28 +1705,28 @@
         <v>70</v>
       </c>
       <c r="J25" s="7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="9">
-        <f t="shared" si="2"/>
         <v>0.22857142857142856</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="11">
         <f ca="1">SUM(B7:B31)</f>
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
         <f ca="1">AVERAGE(D7:D52)</f>
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E26" s="11">
         <f ca="1">AVERAGE(E7:E52)</f>
-        <v>20.833333333333332</v>
+        <v>19.166666666666668</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
@@ -2113,8 +1741,7 @@
     <mergeCell ref="A5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/ProductBurndown.xlsx
+++ b/ProductBurndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\AEC\AECProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A96DF5B-3D62-4C6C-9A13-3A5DCFA90CA5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E60EA64-54A4-461F-A8E6-F70A2E5E7B62}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -357,13 +357,13 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.142857142857142</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.2857142857142856</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.42857142857142883</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -925,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1111,7 +1111,7 @@
         <v>29</v>
       </c>
       <c r="G9" s="7">
-        <f t="shared" ref="G9:G52" si="4">H8</f>
+        <f t="shared" ref="G9:G25" si="4">H8</f>
         <v>10</v>
       </c>
       <c r="H9" s="7">
@@ -1182,8 +1182,12 @@
       <c r="C11" s="6">
         <v>8</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="D11" s="6">
+        <v>4</v>
+      </c>
+      <c r="E11" s="6">
+        <v>30</v>
+      </c>
       <c r="F11" s="7">
         <f t="shared" si="3"/>
         <v>21</v>
@@ -1194,7 +1198,7 @@
       </c>
       <c r="H11" s="7">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I11" s="7">
         <f>I10+E10</f>
@@ -1202,11 +1206,11 @@
       </c>
       <c r="J11" s="7">
         <f t="shared" ref="J11:J25" si="5">MAX(IF(OR(ISBLANK(D11),ISBLANK(E11)),F11-K10*B11,F11-D11),0)</f>
-        <v>14.142857142857142</v>
+        <v>17</v>
       </c>
       <c r="K11" s="9">
         <f t="shared" ref="K11:K25" si="6">IF(OR(ISBLANK(D11),ISBLANK(E11)),K10,H11/(I11+E11))</f>
-        <v>0.22857142857142856</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1222,27 +1226,27 @@
       <c r="E12" s="6"/>
       <c r="F12" s="7">
         <f t="shared" si="3"/>
-        <v>14.142857142857142</v>
+        <v>17</v>
       </c>
       <c r="G12" s="7">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H12" s="7">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I12" s="7">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="J12" s="7">
         <f t="shared" si="5"/>
-        <v>7.2857142857142856</v>
+        <v>11</v>
       </c>
       <c r="K12" s="9">
         <f t="shared" si="6"/>
-        <v>0.22857142857142856</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1258,27 +1262,27 @@
       <c r="E13" s="6"/>
       <c r="F13" s="7">
         <f t="shared" si="3"/>
-        <v>7.2857142857142856</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H13" s="7">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I13" s="7">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="J13" s="7">
         <f t="shared" si="5"/>
-        <v>0.42857142857142883</v>
+        <v>5</v>
       </c>
       <c r="K13" s="9">
         <f t="shared" si="6"/>
-        <v>0.22857142857142856</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1294,19 +1298,19 @@
       <c r="E14" s="6"/>
       <c r="F14" s="7">
         <f t="shared" si="3"/>
-        <v>0.42857142857142883</v>
+        <v>5</v>
       </c>
       <c r="G14" s="7">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H14" s="7">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I14" s="7">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="J14" s="7">
         <f t="shared" si="5"/>
@@ -1314,7 +1318,7 @@
       </c>
       <c r="K14" s="9">
         <f t="shared" si="6"/>
-        <v>0.22857142857142856</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1334,15 +1338,15 @@
       </c>
       <c r="G15" s="7">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H15" s="7">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I15" s="7">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="J15" s="7">
         <f t="shared" si="5"/>
@@ -1350,7 +1354,7 @@
       </c>
       <c r="K15" s="9">
         <f t="shared" si="6"/>
-        <v>0.22857142857142856</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1370,15 +1374,15 @@
       </c>
       <c r="G16" s="7">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H16" s="7">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I16" s="7">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="J16" s="7">
         <f t="shared" si="5"/>
@@ -1386,7 +1390,7 @@
       </c>
       <c r="K16" s="9">
         <f t="shared" si="6"/>
-        <v>0.22857142857142856</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1406,15 +1410,15 @@
       </c>
       <c r="G17" s="7">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H17" s="7">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I17" s="7">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="J17" s="7">
         <f t="shared" si="5"/>
@@ -1422,7 +1426,7 @@
       </c>
       <c r="K17" s="9">
         <f t="shared" si="6"/>
-        <v>0.22857142857142856</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1442,15 +1446,15 @@
       </c>
       <c r="G18" s="7">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H18" s="7">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I18" s="7">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="J18" s="7">
         <f t="shared" si="5"/>
@@ -1458,7 +1462,7 @@
       </c>
       <c r="K18" s="9">
         <f t="shared" si="6"/>
-        <v>0.22857142857142856</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1478,15 +1482,15 @@
       </c>
       <c r="G19" s="7">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H19" s="7">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I19" s="7">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="J19" s="7">
         <f t="shared" si="5"/>
@@ -1494,7 +1498,7 @@
       </c>
       <c r="K19" s="9">
         <f t="shared" si="6"/>
-        <v>0.22857142857142856</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1514,15 +1518,15 @@
       </c>
       <c r="G20" s="7">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H20" s="7">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I20" s="7">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="J20" s="7">
         <f t="shared" si="5"/>
@@ -1530,7 +1534,7 @@
       </c>
       <c r="K20" s="9">
         <f t="shared" si="6"/>
-        <v>0.22857142857142856</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1550,15 +1554,15 @@
       </c>
       <c r="G21" s="7">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H21" s="7">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I21" s="7">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="J21" s="7">
         <f t="shared" si="5"/>
@@ -1566,7 +1570,7 @@
       </c>
       <c r="K21" s="9">
         <f t="shared" si="6"/>
-        <v>0.22857142857142856</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1586,15 +1590,15 @@
       </c>
       <c r="G22" s="7">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H22" s="7">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I22" s="7">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="J22" s="7">
         <f t="shared" si="5"/>
@@ -1602,7 +1606,7 @@
       </c>
       <c r="K22" s="9">
         <f t="shared" si="6"/>
-        <v>0.22857142857142856</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -1622,15 +1626,15 @@
       </c>
       <c r="G23" s="7">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H23" s="7">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I23" s="7">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="J23" s="7">
         <f t="shared" si="5"/>
@@ -1638,7 +1642,7 @@
       </c>
       <c r="K23" s="9">
         <f t="shared" si="6"/>
-        <v>0.22857142857142856</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1658,15 +1662,15 @@
       </c>
       <c r="G24" s="7">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H24" s="7">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I24" s="7">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="J24" s="7">
         <f t="shared" si="5"/>
@@ -1674,7 +1678,7 @@
       </c>
       <c r="K24" s="9">
         <f t="shared" si="6"/>
-        <v>0.22857142857142856</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1694,15 +1698,15 @@
       </c>
       <c r="G25" s="7">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H25" s="7">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I25" s="7">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="J25" s="7">
         <f t="shared" si="5"/>
@@ -1710,7 +1714,7 @@
       </c>
       <c r="K25" s="9">
         <f t="shared" si="6"/>
-        <v>0.22857142857142856</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">

--- a/ProductBurndown.xlsx
+++ b/ProductBurndown.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\AEC\AECProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E60EA64-54A4-461F-A8E6-F70A2E5E7B62}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57819DE1-BC52-42E3-AFCB-AF0F6FFE3831}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -363,10 +363,10 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -925,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1257,12 +1257,16 @@
       <c r="B13" s="6">
         <v>30</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+      <c r="C13" s="6">
+        <v>2</v>
+      </c>
+      <c r="D13" s="6">
+        <v>2</v>
+      </c>
       <c r="E13" s="6"/>
       <c r="F13" s="7">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G13" s="7">
         <f t="shared" si="4"/>
@@ -1270,7 +1274,7 @@
       </c>
       <c r="H13" s="7">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I13" s="7">
         <f t="shared" si="1"/>
@@ -1278,7 +1282,7 @@
       </c>
       <c r="J13" s="7">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K13" s="9">
         <f t="shared" si="6"/>
@@ -1298,15 +1302,15 @@
       <c r="E14" s="6"/>
       <c r="F14" s="7">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G14" s="7">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H14" s="7">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I14" s="7">
         <f t="shared" si="1"/>
@@ -1314,7 +1318,7 @@
       </c>
       <c r="J14" s="7">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="9">
         <f t="shared" si="6"/>
@@ -1334,15 +1338,15 @@
       <c r="E15" s="6"/>
       <c r="F15" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="7">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H15" s="7">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I15" s="7">
         <f t="shared" si="1"/>
@@ -1374,11 +1378,11 @@
       </c>
       <c r="G16" s="7">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H16" s="7">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I16" s="7">
         <f t="shared" si="1"/>
@@ -1410,11 +1414,11 @@
       </c>
       <c r="G17" s="7">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H17" s="7">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I17" s="7">
         <f t="shared" si="1"/>
@@ -1446,11 +1450,11 @@
       </c>
       <c r="G18" s="7">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H18" s="7">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I18" s="7">
         <f t="shared" si="1"/>
@@ -1482,11 +1486,11 @@
       </c>
       <c r="G19" s="7">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H19" s="7">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I19" s="7">
         <f t="shared" si="1"/>
@@ -1518,11 +1522,11 @@
       </c>
       <c r="G20" s="7">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H20" s="7">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I20" s="7">
         <f t="shared" si="1"/>
@@ -1554,11 +1558,11 @@
       </c>
       <c r="G21" s="7">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H21" s="7">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I21" s="7">
         <f t="shared" si="1"/>
@@ -1590,11 +1594,11 @@
       </c>
       <c r="G22" s="7">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H22" s="7">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I22" s="7">
         <f t="shared" si="1"/>
@@ -1626,11 +1630,11 @@
       </c>
       <c r="G23" s="7">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H23" s="7">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I23" s="7">
         <f t="shared" si="1"/>
@@ -1662,11 +1666,11 @@
       </c>
       <c r="G24" s="7">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H24" s="7">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I24" s="7">
         <f t="shared" si="1"/>
@@ -1698,11 +1702,11 @@
       </c>
       <c r="G25" s="7">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H25" s="7">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I25" s="7">
         <f t="shared" si="1"/>

--- a/ProductBurndown.xlsx
+++ b/ProductBurndown.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Schule\AEC\AECProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57819DE1-BC52-42E3-AFCB-AF0F6FFE3831}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968C4EBB-5655-4AFC-B13F-4D4D7420566E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
+    <sheet name="Burndown" sheetId="1" r:id="rId1"/>
+    <sheet name="Pmsheet" sheetId="2" r:id="rId2"/>
+    <sheet name="Backlog" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="73">
   <si>
     <t>Initial</t>
   </si>
@@ -84,6 +84,175 @@
   </si>
   <si>
     <t>Velocity (stpts / hour)</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Orig. Est</t>
+  </si>
+  <si>
+    <t>Curr. Est</t>
+  </si>
+  <si>
+    <t>Effort</t>
+  </si>
+  <si>
+    <t>Remain</t>
+  </si>
+  <si>
+    <t>Responsible</t>
+  </si>
+  <si>
+    <t>Story-16</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>Story-3</t>
+  </si>
+  <si>
+    <t>Bochis</t>
+  </si>
+  <si>
+    <t>Story-9</t>
+  </si>
+  <si>
+    <t>Anil</t>
+  </si>
+  <si>
+    <t>Story-10</t>
+  </si>
+  <si>
+    <t>Story-7</t>
+  </si>
+  <si>
+    <t>Story18</t>
+  </si>
+  <si>
+    <t>Story-5</t>
+  </si>
+  <si>
+    <t>Story17</t>
+  </si>
+  <si>
+    <t>Story 19</t>
+  </si>
+  <si>
+    <t>Story-6</t>
+  </si>
+  <si>
+    <t>Story-17</t>
+  </si>
+  <si>
+    <t>Story-20</t>
+  </si>
+  <si>
+    <t>Story ID</t>
+  </si>
+  <si>
+    <t>Story</t>
+  </si>
+  <si>
+    <t>Storypoints</t>
+  </si>
+  <si>
+    <t>Wechseln auf neues DevKit</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Verbesserung tracking impl. (Canvas)</t>
+  </si>
+  <si>
+    <t>Implementation von Collision Detection</t>
+  </si>
+  <si>
+    <t>Tracking und Animation in 1 Projekt</t>
+  </si>
+  <si>
+    <t>Starten von Animation durch stehen auf homebutton</t>
+  </si>
+  <si>
+    <t>Done if animation 1 start when a user stands on the Home button of the Smartphone</t>
+  </si>
+  <si>
+    <t>Auswahl von Text durch User</t>
+  </si>
+  <si>
+    <t>Animation Text auf smartphone</t>
+  </si>
+  <si>
+    <t>Smartphone fade out End of scene 1</t>
+  </si>
+  <si>
+    <t>Text converten mit rotX</t>
+  </si>
+  <si>
+    <t>Done if a Text can get convertet fia rotX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animation for encryption
+</t>
+  </si>
+  <si>
+    <t>Done if the model and the animation of the enryption work</t>
+  </si>
+  <si>
+    <t>Selection of rotX with tracking End of scene 2</t>
+  </si>
+  <si>
+    <t>Done when the User can choose a letter for the encryption</t>
+  </si>
+  <si>
+    <t>Implement Game scene 3</t>
+  </si>
+  <si>
+    <t>Create Animation of sending a message scene 4</t>
+  </si>
+  <si>
+    <t>Create Animation message tower</t>
+  </si>
+  <si>
+    <t>Leaderboard scene 5</t>
+  </si>
+  <si>
+    <t>Making Storys and Pm sheet</t>
+  </si>
+  <si>
+    <t>As a player i want to see scene nr1 in a retro style</t>
+  </si>
+  <si>
+    <t>Done when the telefon is in a retro style and behaves properrly</t>
+  </si>
+  <si>
+    <t>As a player i want to see a retro world in the background</t>
+  </si>
+  <si>
+    <t>Done when the player sees a retro world in a dark theme with starts in the background</t>
+  </si>
+  <si>
+    <t>fix burndown</t>
+  </si>
+  <si>
+    <t>Create Grid Floor</t>
+  </si>
+  <si>
+    <t>Done if User can chose one of four text Bubbles</t>
+  </si>
+  <si>
+    <t>Make Storys for Scene3</t>
+  </si>
+  <si>
+    <t>Story-21</t>
+  </si>
+  <si>
+    <t>Fix Leaderboard Bugs</t>
+  </si>
+  <si>
+    <t>Story-22</t>
   </si>
 </sst>
 </file>
@@ -95,7 +264,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,8 +288,28 @@
       <name val="Arial"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,8 +322,20 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -157,6 +358,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -164,7 +402,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
@@ -207,6 +445,46 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -262,7 +540,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$J$6</c:f>
+              <c:f>Burndown!$J$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -274,7 +552,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Tabelle1!$A$7:$A$52</c:f>
+              <c:f>Burndown!$A$7:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>mmm\ d", "yyyy</c:formatCode>
                 <c:ptCount val="46"/>
@@ -340,7 +618,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$J$7:$J$52</c:f>
+              <c:f>Burndown!$J$7:$J$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="46"/>
@@ -925,7 +1203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -1755,24 +2033,949 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" customWidth="1"/>
+    <col min="6" max="6" width="35" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+    </row>
+    <row r="2" spans="1:6" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="19">
+        <v>1</v>
+      </c>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="18">
+        <v>2</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="19">
+        <v>1</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18">
+        <v>3</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="19">
+        <v>2</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="18">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="19">
+        <v>2</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="18">
+        <v>5</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="19">
+        <v>1</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="18">
+        <v>6</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="19">
+        <v>2</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="18">
+        <v>7</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="19">
+        <v>2</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="18">
+        <v>8</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="19">
+        <v>1</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="18">
+        <v>9</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="19">
+        <v>2</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="18">
+        <v>10</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="19">
+        <v>2</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="18">
+        <v>11</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="19">
+        <v>3</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="18">
+        <v>12</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="19">
+        <v>13</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+    </row>
+    <row r="14" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="18">
+        <v>13</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="19">
+        <v>8</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+    </row>
+    <row r="15" spans="1:6" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="18">
+        <v>14</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="19">
+        <v>8</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+    </row>
+    <row r="16" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="23">
+        <v>15</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="25">
+        <v>5</v>
+      </c>
+      <c r="D16" s="24"/>
+      <c r="E16" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="39" x14ac:dyDescent="0.25">
+      <c r="A17" s="26">
+        <v>16</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="28">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="26">
+        <v>17</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="28">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="26">
+        <v>18</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="28">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="26">
+        <v>19</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="28">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="26">
+        <v>20</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="28">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="26">
+        <v>21</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="26">
+        <v>22</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="28">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>